--- a/src/test/java/com/inetbanking/testData/DDTestCase.xlsx
+++ b/src/test/java/com/inetbanking/testData/DDTestCase.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB0BB7BF-80BB-4976-B136-91499F9DC503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{892757C3-2CE5-48D7-8C0D-03FBAD26637E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{958E817B-1DFE-4115-9021-3D426F43E324}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{958E817B-1DFE-4115-9021-3D426F43E324}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="F1:P25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -100,6 +101,60 @@
   </si>
   <si>
     <t>EbEhUha</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>SelectCountry</t>
+  </si>
+  <si>
+    <t>DateBirthOfYear</t>
+  </si>
+  <si>
+    <t>DateBirthOfMonth</t>
+  </si>
+  <si>
+    <t>DateOfBirthDay</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -164,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +548,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,14 +675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EEBEA-CE2F-486F-8A11-325095BB5117}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="6" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -666,7 +724,7 @@
         <v>443402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -686,7 +744,7 @@
         <v>443403</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -716,4 +774,193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7E6C6E-DA41-463B-B99A-7B477D2D6433}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12122000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12122000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>12122000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12122001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12122001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12122001</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>12122002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12122002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12122002</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>